--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serco\Desktop\A Minha Universidade\CR\ArtificialNeuralNetworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34A0B04-EF89-4E80-9966-E66BB0F2F02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA530EC-0713-4E1F-9605-F4D2DDAD5D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C123D349-7FFA-4217-BDF3-C53B981C7DF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{C123D349-7FFA-4217-BDF3-C53B981C7DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="PointA" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="192">
   <si>
     <t>Configuaração Base</t>
   </si>
@@ -230,21 +230,6 @@
     <t xml:space="preserve">A divisão de exemplos pelos conjuntos influencia o desempenho? </t>
   </si>
   <si>
-    <t>Rede Neuronal: nome1</t>
-  </si>
-  <si>
-    <t>Rede Neuronal: nome2</t>
-  </si>
-  <si>
-    <t>Rede Neuronal: nome3</t>
-  </si>
-  <si>
-    <t>Rede Neuronal: nome4</t>
-  </si>
-  <si>
-    <t>Rede Neuronal: nome5</t>
-  </si>
-  <si>
     <t>Sem re-treinar a RN</t>
   </si>
   <si>
@@ -272,9 +257,6 @@
     <t>Target</t>
   </si>
   <si>
-    <t>RN: nome1</t>
-  </si>
-  <si>
     <t>triangle</t>
   </si>
   <si>
@@ -351,6 +333,297 @@
   </si>
   <si>
     <t>✗</t>
+  </si>
+  <si>
+    <t>2.1816e-12</t>
+  </si>
+  <si>
+    <t>Reached minimum gradient</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>2.099e-14</t>
+  </si>
+  <si>
+    <t>1m53s</t>
+  </si>
+  <si>
+    <t>7.6570e-14</t>
+  </si>
+  <si>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>2.9775e-15</t>
+  </si>
+  <si>
+    <t>3m24s</t>
+  </si>
+  <si>
+    <t>2.5860e-24</t>
+  </si>
+  <si>
+    <t>3m48s</t>
+  </si>
+  <si>
+    <t>0.0207</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>2.2437e-07</t>
+  </si>
+  <si>
+    <t>Reached minimum step size</t>
+  </si>
+  <si>
+    <t>0.0039</t>
+  </si>
+  <si>
+    <t>Reached maximum number of epochs</t>
+  </si>
+  <si>
+    <t>3s</t>
+  </si>
+  <si>
+    <t>4.2821e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reached maximum number of epochs </t>
+  </si>
+  <si>
+    <t>4s</t>
+  </si>
+  <si>
+    <t>1.1217e-04</t>
+  </si>
+  <si>
+    <t>2.7014e-14</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>6s</t>
+  </si>
+  <si>
+    <t>5.3174e-09</t>
+  </si>
+  <si>
+    <t>13s</t>
+  </si>
+  <si>
+    <t>1.0251e-14</t>
+  </si>
+  <si>
+    <t>28s</t>
+  </si>
+  <si>
+    <t>7.4781e-20</t>
+  </si>
+  <si>
+    <t>Grande tempo de execução por teste</t>
+  </si>
+  <si>
+    <t>Met validation criterion</t>
+  </si>
+  <si>
+    <t>34s</t>
+  </si>
+  <si>
+    <t>49s</t>
+  </si>
+  <si>
+    <t>37s</t>
+  </si>
+  <si>
+    <t>A junção dos melhores parâmetros de cada teste é benéfico ao desempenho?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A função de divisão influencia o desempenho? </t>
+  </si>
+  <si>
+    <t>divideblock = {0.7, 0.15, 0.15}</t>
+  </si>
+  <si>
+    <t>divideint = {0.7, 0.15, 0.15}</t>
+  </si>
+  <si>
+    <t>divideblock</t>
+  </si>
+  <si>
+    <t>divideint</t>
+  </si>
+  <si>
+    <t>divideind</t>
+  </si>
+  <si>
+    <t>0.0136</t>
+  </si>
+  <si>
+    <t>47s</t>
+  </si>
+  <si>
+    <t>divideind = {0.7, 0.15, 0.15}</t>
+  </si>
+  <si>
+    <t>0.1153</t>
+  </si>
+  <si>
+    <t>Rede Neuronal: net1</t>
+  </si>
+  <si>
+    <t>Rede Neuronal: net2</t>
+  </si>
+  <si>
+    <t>41s</t>
+  </si>
+  <si>
+    <t>0.0101</t>
+  </si>
+  <si>
+    <t>0.0351</t>
+  </si>
+  <si>
+    <t>46s</t>
+  </si>
+  <si>
+    <t>6.9105e-04</t>
+  </si>
+  <si>
+    <t>85s</t>
+  </si>
+  <si>
+    <t>7.5803e-04</t>
+  </si>
+  <si>
+    <t>0.0810</t>
+  </si>
+  <si>
+    <t>0.1169</t>
+  </si>
+  <si>
+    <t>0.0497</t>
+  </si>
+  <si>
+    <t>0.0773</t>
+  </si>
+  <si>
+    <t>0s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Met validation criterion</t>
+  </si>
+  <si>
+    <t>0.1390</t>
+  </si>
+  <si>
+    <t>0.0064</t>
+  </si>
+  <si>
+    <t>60s</t>
+  </si>
+  <si>
+    <t>0.2575</t>
+  </si>
+  <si>
+    <t>54s</t>
+  </si>
+  <si>
+    <t>0.0147</t>
+  </si>
+  <si>
+    <t>1m2s</t>
+  </si>
+  <si>
+    <t>9.0917e.05</t>
+  </si>
+  <si>
+    <t>2m9s</t>
+  </si>
+  <si>
+    <t>0.2459</t>
+  </si>
+  <si>
+    <t>21s</t>
+  </si>
+  <si>
+    <t>0.0776</t>
+  </si>
+  <si>
+    <t>1m5s</t>
+  </si>
+  <si>
+    <t>0.0348</t>
+  </si>
+  <si>
+    <t>0.0060</t>
+  </si>
+  <si>
+    <t>44s</t>
+  </si>
+  <si>
+    <t>0.0563</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>2.4372e-13</t>
+  </si>
+  <si>
+    <t>0.0236</t>
+  </si>
+  <si>
+    <t>33s</t>
+  </si>
+  <si>
+    <t>0.0542</t>
+  </si>
+  <si>
+    <t>0.0923</t>
+  </si>
+  <si>
+    <t>0.1137</t>
+  </si>
+  <si>
+    <t>48s</t>
+  </si>
+  <si>
+    <t>45s</t>
+  </si>
+  <si>
+    <t>0.0993</t>
+  </si>
+  <si>
+    <t>43s</t>
+  </si>
+  <si>
+    <t>8.3934e-04</t>
+  </si>
+  <si>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>Rede Neuronal: net3</t>
+  </si>
+  <si>
+    <t>2.1180e-16</t>
+  </si>
+  <si>
+    <t>RN: net4</t>
+  </si>
+  <si>
+    <t>3m38s</t>
   </si>
 </sst>
 </file>
@@ -426,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +748,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -489,7 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -515,46 +800,150 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,13 +1261,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8204C7B-65C3-4269-9856-1663A3D8CFF1}">
-  <dimension ref="B2:N27"/>
+  <dimension ref="B2:N25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -886,10 +1275,9 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="14" width="19.28515625" customWidth="1"/>
+    <col min="9" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -949,11 +1337,21 @@
         <v>16</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="8">
+        <v>46</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="N3" s="8">
         <v>10</v>
       </c>
@@ -973,21 +1371,21 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1009,11 +1407,21 @@
         <v>16</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="I6" s="18">
+        <v>0.96</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="8">
+        <v>392</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="N6" s="8">
         <v>10</v>
       </c>
@@ -1038,11 +1446,21 @@
         <v>16</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="8">
+        <v>37</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="N7" s="8">
         <v>10</v>
       </c>
@@ -1067,11 +1485,21 @@
         <v>16</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="8">
+        <v>159</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="N8" s="8">
         <v>10</v>
       </c>
@@ -1096,31 +1524,41 @@
         <v>16</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="8">
+        <v>19</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="N9" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1141,14 +1579,14 @@
       <c r="G12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8">
-        <v>10</v>
-      </c>
+      <c r="I12" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1169,18 +1607,28 @@
       <c r="G13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="I13" s="18">
+        <v>0.64</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="8">
+        <v>950</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>107</v>
+      </c>
       <c r="N13" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>26</v>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -1192,23 +1640,33 @@
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="I14" s="18">
+        <v>0.98</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="8">
+        <v>403</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="N14" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>27</v>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1220,23 +1678,33 @@
         <v>14</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="8">
+        <v>955</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="N15" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>28</v>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -1248,23 +1716,33 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="I16" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="N16" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>27</v>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -1276,96 +1754,126 @@
         <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="N17" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="6" t="s">
+    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+    </row>
+    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="8">
+        <v>25</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>10</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="I21" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="8">
+        <v>11</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>39</v>
+      <c r="B22" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -1374,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>15</v>
@@ -1382,27 +1890,37 @@
       <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="I22" s="53">
+        <v>0.99</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="8">
+        <v>21</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="N22" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>40</v>
+      <c r="B23" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>15</v>
@@ -1410,18 +1928,28 @@
       <c r="G23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K23" s="8">
+        <v>36</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="N23" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>41</v>
+      <c r="B24" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -1430,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>15</v>
@@ -1438,27 +1966,27 @@
       <c r="G24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <v>10</v>
-      </c>
+      <c r="I24" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
     </row>
     <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
+      <c r="D25" s="6">
+        <v>10</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>15</v>
@@ -1466,76 +1994,32 @@
       <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="8">
+        <v>7</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="N25" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>10</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B21:N21"/>
+  <mergeCells count="5">
     <mergeCell ref="B11:N11"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B19:N19"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1547,23 +2031,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5563254-18F9-4D35-94F4-DBA3394D75B2}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="A2:O54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="9" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
     <col min="14" max="14" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1624,12 +2110,24 @@
         <v>51</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="I3" s="20">
+        <v>0.87</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="19">
+        <v>13</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="19">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1644,24 +2142,24 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="23"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1683,12 +2181,24 @@
         <v>51</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="I6" s="22">
+        <v>0.84</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="21">
+        <v>13</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="21">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1710,12 +2220,24 @@
         <v>51</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
+      <c r="I7" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="21">
+        <v>12</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="N7" s="21">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1737,12 +2259,24 @@
         <v>51</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="I8" s="22">
+        <v>0.88</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="21">
+        <v>16</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" s="21">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -1764,29 +2298,31 @@
         <v>51</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
+      <c r="I9" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
     </row>
     <row r="12" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1807,12 +2343,14 @@
       <c r="G12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="I12" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1833,12 +2371,24 @@
       <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
+      <c r="I13" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="23">
+        <v>25</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="N13" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1859,12 +2409,24 @@
       <c r="G14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="I14" s="24">
+        <v>0.63</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="23">
+        <v>40</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1885,12 +2447,24 @@
       <c r="G15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
+      <c r="I15" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="23">
+        <v>48</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1911,393 +2485,599 @@
       <c r="G16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="I16" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="23">
+        <v>26</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>10</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="B17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28">
+        <v>10</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="34">
+        <v>0.41</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" s="30">
+        <v>33</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N17" s="30">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="28">
+        <v>10</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="30">
+        <v>105</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="N18" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+    </row>
+    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="28">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28">
+        <v>10</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="34">
+        <v>0.88</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="30">
+        <v>12</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28">
+        <v>10</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="34">
+        <v>0.32</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="30">
+        <v>15</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="N22" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
+      <c r="D23" s="28">
+        <v>10</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="30">
+        <v>13</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="N23" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="28">
+        <v>2</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="30">
+        <v>15</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="N24" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="28">
+        <v>1</v>
+      </c>
+      <c r="D25" s="28">
+        <v>10</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="34">
+        <v>0.67</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="30">
         <v>29</v>
       </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="L25" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="N25" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="28">
+        <v>1</v>
+      </c>
+      <c r="D26" s="28">
+        <v>10</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="34">
+        <v>0.73</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="30">
+        <v>8</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="N26" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+    </row>
+    <row r="29" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="28">
+        <v>1</v>
+      </c>
+      <c r="D29" s="28">
+        <v>10</v>
+      </c>
+      <c r="E29" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="F29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="34">
+        <v>0.73</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="30">
         <v>14</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>10</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="L29" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="28">
+        <v>1</v>
+      </c>
+      <c r="D30" s="28">
+        <v>10</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="G30" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="34">
+        <v>0.95</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="30">
+        <v>13</v>
+      </c>
+      <c r="L30" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="N30" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="28">
+        <v>1</v>
+      </c>
+      <c r="D31" s="28">
+        <v>10</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="34">
+        <v>0.81</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="30">
+        <v>13</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="N31" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="28">
+        <v>1</v>
+      </c>
+      <c r="D32" s="28">
+        <v>10</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="34">
+        <v>0.79</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="30">
+        <v>10</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="N32" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B33" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="28">
+        <v>1</v>
+      </c>
+      <c r="D33" s="28">
+        <v>10</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="K33" s="30">
         <v>46</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>10</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6">
-        <v>10</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>10</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>10</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6">
-        <v>10</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
+      <c r="L33" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="N33" s="30">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -2311,49 +3091,543 @@
       <c r="F34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="G34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="I34" s="34">
+        <v>0.74</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="K34" s="30">
+        <v>13</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="N34" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+    </row>
+    <row r="37" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="28">
+        <v>1</v>
+      </c>
+      <c r="D37" s="28">
+        <v>10</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="G37" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="36">
+        <v>10</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="28">
+        <v>1</v>
+      </c>
+      <c r="D38" s="28">
+        <v>10</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" s="34">
+        <v>0.84</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="K38" s="36">
+        <v>10</v>
+      </c>
+      <c r="L38" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="N38" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="28">
+        <v>1</v>
+      </c>
+      <c r="D39" s="28">
+        <v>10</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="34">
+        <v>0.18</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39" s="36">
+        <v>13</v>
+      </c>
+      <c r="L39" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="N39" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+    </row>
+    <row r="42" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="37">
+        <v>1</v>
+      </c>
+      <c r="C42" s="27">
+        <v>2</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="25"/>
+      <c r="I42" s="34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="36">
+        <v>36</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="N42" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="26">
+        <v>2</v>
+      </c>
+      <c r="C43" s="27">
+        <v>2</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="34">
+        <v>0.49</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K43" s="36">
+        <v>28</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="N43" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="43">
+        <v>3</v>
+      </c>
+      <c r="C44" s="44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="47">
+        <v>0.93</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" s="48">
+        <v>13</v>
+      </c>
+      <c r="L44" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="M44" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="N44" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="26">
+        <v>4</v>
+      </c>
+      <c r="C45" s="33">
+        <v>3</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="K45" s="36">
+        <v>11</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="N45" s="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="26">
+        <v>5</v>
+      </c>
+      <c r="C46" s="33">
+        <v>1</v>
+      </c>
+      <c r="D46" s="33">
+        <v>10</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="K46" s="36">
+        <v>11</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46" s="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="43">
+        <v>6</v>
+      </c>
+      <c r="C47" s="45">
+        <v>2</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="47">
+        <v>0.89</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="K47" s="48">
+        <v>13</v>
+      </c>
+      <c r="L47" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="M47" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="N47" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="43">
+        <v>7</v>
+      </c>
+      <c r="C48" s="45">
+        <v>2</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="47">
+        <v>0.88</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="K48" s="48">
+        <v>12</v>
+      </c>
+      <c r="L48" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="M48" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N48" s="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="31"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="31"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B21:N21"/>
+  <mergeCells count="8">
+    <mergeCell ref="B36:N36"/>
+    <mergeCell ref="B41:N41"/>
     <mergeCell ref="B11:N11"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B20:N20"/>
+    <mergeCell ref="B28:N28"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I12:N12"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2363,152 +3637,205 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A396CD4-F399-48EB-A341-E914ABC8FBAC}">
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="C5:G5"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C8" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C9" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="C10" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="B14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.96</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="B15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.97</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2519,11 +3846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82460AA-FC61-4D4A-8F5A-657FB933782E}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="G4:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="4" width="20" customWidth="1"/>
@@ -2531,182 +3858,214 @@
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="C3" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13" t="s">
-        <v>100</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="15"/>
+        <v>70</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="15"/>
+        <v>85</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="15"/>
+        <v>89</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="15"/>
+        <v>90</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
